--- a/R0/02_SignalMatrix/HkmcDtc/HkmcDtc_SignalMatrix_V1_R0.xlsx
+++ b/R0/02_SignalMatrix/HkmcDtc/HkmcDtc_SignalMatrix_V1_R0.xlsx
@@ -5,62 +5,47 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kasi.subrahmanyam\OneDrive - Veoneer\Documents\HKMC-Documents\CAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_2020\90_GitHub\0410\Veoneer\R0\02_SignalMatrix\HkmcDtc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="176" documentId="8_{E3A057C3-4D42-45A9-B964-788DA129F511}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{800B5DDE-8998-4EB3-803F-AC309413F61C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E6CCFC-E284-4BA1-9F61-E1C56848E024}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{51B81819-EC55-40BC-AC3D-96F7FA05F5FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{51B81819-EC55-40BC-AC3D-96F7FA05F5FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Version History" sheetId="22" r:id="rId1"/>
     <sheet name="SignalInfo" sheetId="30" r:id="rId2"/>
-    <sheet name="Delegation ports" sheetId="25" r:id="rId3"/>
-    <sheet name="Assembly ports" sheetId="24" r:id="rId4"/>
+    <sheet name="Assembly ports" sheetId="24" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SignalInfo!$A$1:$U$1</definedName>
-    <definedName name="EST_PTN1" comment="Estimation Pattern1" localSheetId="3">#REF!</definedName>
     <definedName name="EST_PTN1" comment="Estimation Pattern1" localSheetId="2">#REF!</definedName>
     <definedName name="EST_PTN1" comment="Estimation Pattern1" localSheetId="1">#REF!</definedName>
     <definedName name="EST_PTN1" comment="Estimation Pattern1">#REF!</definedName>
-    <definedName name="EST_PTN2" comment="Estimatiion Pattern2" localSheetId="2">#REF!</definedName>
     <definedName name="EST_PTN2" comment="Estimatiion Pattern2" localSheetId="1">#REF!</definedName>
     <definedName name="EST_PTN2" comment="Estimatiion Pattern2">#REF!</definedName>
-    <definedName name="EST_PTN3" comment="Estimation Pattern3" localSheetId="2">#REF!</definedName>
     <definedName name="EST_PTN3" comment="Estimation Pattern3" localSheetId="1">#REF!</definedName>
     <definedName name="EST_PTN3" comment="Estimation Pattern3">#REF!</definedName>
-    <definedName name="FileName" localSheetId="2">#REF!</definedName>
     <definedName name="FileName" localSheetId="1">#REF!</definedName>
     <definedName name="FileName">#REF!</definedName>
-    <definedName name="MXActual_state_Released" localSheetId="2">#REF!</definedName>
     <definedName name="MXActual_state_Released" localSheetId="1">#REF!</definedName>
     <definedName name="MXActual_state_Released">#REF!</definedName>
-    <definedName name="MXAuthority" localSheetId="2">#REF!</definedName>
     <definedName name="MXAuthority" localSheetId="1">#REF!</definedName>
     <definedName name="MXAuthority">#REF!</definedName>
-    <definedName name="MXCurrent.Localized" localSheetId="2">#REF!</definedName>
     <definedName name="MXCurrent.Localized" localSheetId="1">#REF!</definedName>
     <definedName name="MXCurrent.Localized">#REF!</definedName>
-    <definedName name="MXName" localSheetId="2">#REF!</definedName>
     <definedName name="MXName" localSheetId="1">#REF!</definedName>
     <definedName name="MXName">#REF!</definedName>
-    <definedName name="MXPolicy" localSheetId="2">#REF!</definedName>
     <definedName name="MXPolicy" localSheetId="1">#REF!</definedName>
     <definedName name="MXPolicy">#REF!</definedName>
-    <definedName name="MXRevision" localSheetId="2">#REF!</definedName>
     <definedName name="MXRevision" localSheetId="1">#REF!</definedName>
     <definedName name="MXRevision">#REF!</definedName>
-    <definedName name="MXType.Localized" localSheetId="2">#REF!</definedName>
     <definedName name="MXType.Localized" localSheetId="1">#REF!</definedName>
     <definedName name="MXType.Localized">#REF!</definedName>
-    <definedName name="MXVersion" localSheetId="2">#REF!</definedName>
     <definedName name="MXVersion" localSheetId="1">#REF!</definedName>
     <definedName name="MXVersion">#REF!</definedName>
-    <definedName name="PLMDocAuthor" localSheetId="2">#REF!</definedName>
     <definedName name="PLMDocAuthor" localSheetId="1">#REF!</definedName>
     <definedName name="PLMDocAuthor">#REF!</definedName>
-    <definedName name="TemplateRef" localSheetId="2">#REF!</definedName>
     <definedName name="TemplateRef" localSheetId="1">#REF!</definedName>
     <definedName name="TemplateRef">#REF!</definedName>
   </definedNames>
@@ -80,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>Change Log</t>
   </si>
@@ -133,9 +118,6 @@
     <t>Input</t>
   </si>
   <si>
-    <t>Output</t>
-  </si>
-  <si>
     <t>Port Type</t>
   </si>
   <si>
@@ -143,26 +125,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>TopLevelComposition Ports  / HkmcVehicleInput Ports</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C/S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From System Signal </t>
-  </si>
-  <si>
     <t>Inter SWC</t>
-  </si>
-  <si>
-    <t>ALARM_setAlarmPoint</t>
-  </si>
-  <si>
-    <t>HkmcDtc SWC</t>
-  </si>
-  <si>
-    <t>HkmcDtc ports</t>
   </si>
   <si>
     <t>KasiSubrahmanyam M</t>
@@ -171,22 +134,13 @@
     <t>Initial Version</t>
   </si>
   <si>
-    <t>Activate alaram for CanBusOff, which is the input for HkmcDtc SWC.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Updated Based on Review Comments</t>
   </si>
   <si>
     <t>CanBusOffStatus</t>
   </si>
   <si>
-    <t>GVP CDD</t>
-  </si>
-  <si>
     <t>U8</t>
-  </si>
-  <si>
-    <t>CanBusOff SWC</t>
   </si>
   <si>
     <t>S/R</t>
@@ -196,22 +150,6 @@
   </si>
   <si>
     <t>Output Parameters</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>callerSafetyDomain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AlarmId </t>
-  </si>
-  <si>
-    <t xml:space="preserve">U32
-</t>
-  </si>
-  <si>
-    <t>Enum</t>
   </si>
   <si>
     <t>-</t>
@@ -224,23 +162,39 @@
 Bit0: CH1 CanBusOff (0-Normal, 1- Can Bus Off)
 Bit1: CH2 CanBusOff (0-Normal, 1- Can Bus Off)</t>
   </si>
+  <si>
+    <t>CanBusOffStatus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HkmcDtcSWC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanBusOff SWC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanBusOff SWC Ports  / HkmcDtcSWC Ports</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -251,7 +205,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -260,7 +214,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -268,20 +222,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -289,7 +243,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -297,7 +251,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -305,14 +259,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -390,7 +337,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -649,15 +596,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -669,9 +607,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -700,7 +636,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -792,10 +728,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -810,6 +743,15 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -828,53 +770,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -893,7 +790,7 @@
     <cellStyle name="Normal 7" xfId="11" xr:uid="{39D77901-4BCA-40AF-BD48-70C6B2907D36}"/>
     <cellStyle name="Normal 8" xfId="12" xr:uid="{6299AA32-8A9F-43A0-9B69-D10D8C0FA74E}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -909,23 +806,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
@@ -1277,16 +1157,16 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="72.6640625" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.125" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="72.625" customWidth="1"/>
+    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15" customHeight="1">
+    <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1319,7 +1199,7 @@
       <c r="AD1" s="4"/>
       <c r="AE1" s="4"/>
     </row>
-    <row r="2" spans="1:31" ht="15" thickBot="1">
+    <row r="2" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1352,15 +1232,15 @@
       <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -1387,7 +1267,7 @@
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
     </row>
-    <row r="4" spans="1:31" ht="15" thickBot="1">
+    <row r="4" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="7" t="s">
         <v>1</v>
@@ -1428,19 +1308,19 @@
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
     </row>
-    <row r="5" spans="1:31" ht="15" thickTop="1">
+    <row r="5" spans="1:31" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="35">
         <v>43986</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>18</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="4"/>
@@ -1469,19 +1349,19 @@
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="15">
         <v>2</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="35">
         <v>43986</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>27</v>
+        <v>17</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>19</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="4"/>
@@ -1510,19 +1390,19 @@
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="10">
         <v>3</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="35">
         <v>44047</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>27</v>
+        <v>17</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>19</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="4"/>
@@ -1551,7 +1431,7 @@
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="15"/>
       <c r="C8" s="26"/>
@@ -1584,7 +1464,7 @@
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
@@ -1617,7 +1497,7 @@
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
@@ -1650,7 +1530,7 @@
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="10"/>
       <c r="C11" s="12"/>
@@ -1683,7 +1563,7 @@
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
@@ -1716,7 +1596,7 @@
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="10"/>
       <c r="C13" s="12"/>
@@ -1749,7 +1629,7 @@
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
@@ -1782,7 +1662,7 @@
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="10"/>
       <c r="C15" s="12"/>
@@ -1815,7 +1695,7 @@
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
     </row>
-    <row r="16" spans="1:31" ht="15" thickBot="1">
+    <row r="16" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="19"/>
       <c r="C16" s="20"/>
@@ -1848,7 +1728,7 @@
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1881,7 +1761,7 @@
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1914,7 +1794,7 @@
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1947,7 +1827,7 @@
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1980,7 +1860,7 @@
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2013,7 +1893,7 @@
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -2046,7 +1926,7 @@
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -2079,7 +1959,7 @@
       <c r="AD23" s="4"/>
       <c r="AE23" s="4"/>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -2112,7 +1992,7 @@
       <c r="AD24" s="4"/>
       <c r="AE24" s="4"/>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -2145,7 +2025,7 @@
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -2178,7 +2058,7 @@
       <c r="AD26" s="4"/>
       <c r="AE26" s="4"/>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2211,7 +2091,7 @@
       <c r="AD27" s="4"/>
       <c r="AE27" s="4"/>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -2244,7 +2124,7 @@
       <c r="AD28" s="4"/>
       <c r="AE28" s="4"/>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -2277,7 +2157,7 @@
       <c r="AD29" s="4"/>
       <c r="AE29" s="4"/>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2310,7 +2190,7 @@
       <c r="AD30" s="4"/>
       <c r="AE30" s="4"/>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -2343,7 +2223,7 @@
       <c r="AD31" s="4"/>
       <c r="AE31" s="4"/>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2376,7 +2256,7 @@
       <c r="AD32" s="4"/>
       <c r="AE32" s="4"/>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2409,7 +2289,7 @@
       <c r="AD33" s="4"/>
       <c r="AE33" s="4"/>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -2442,7 +2322,7 @@
       <c r="AD34" s="4"/>
       <c r="AE34" s="4"/>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2475,7 +2355,7 @@
       <c r="AD35" s="4"/>
       <c r="AE35" s="4"/>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2508,7 +2388,7 @@
       <c r="AD36" s="4"/>
       <c r="AE36" s="4"/>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -2541,7 +2421,7 @@
       <c r="AD37" s="4"/>
       <c r="AE37" s="4"/>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2574,7 +2454,7 @@
       <c r="AD38" s="4"/>
       <c r="AE38" s="4"/>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -2607,7 +2487,7 @@
       <c r="AD39" s="4"/>
       <c r="AE39" s="4"/>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2640,7 +2520,7 @@
       <c r="AD40" s="4"/>
       <c r="AE40" s="4"/>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2673,7 +2553,7 @@
       <c r="AD41" s="4"/>
       <c r="AE41" s="4"/>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2706,7 +2586,7 @@
       <c r="AD42" s="4"/>
       <c r="AE42" s="4"/>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2739,7 +2619,7 @@
       <c r="AD43" s="4"/>
       <c r="AE43" s="4"/>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -2772,7 +2652,7 @@
       <c r="AD44" s="4"/>
       <c r="AE44" s="4"/>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2805,7 +2685,7 @@
       <c r="AD45" s="4"/>
       <c r="AE45" s="4"/>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2838,7 +2718,7 @@
       <c r="AD46" s="4"/>
       <c r="AE46" s="4"/>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2871,7 +2751,7 @@
       <c r="AD47" s="4"/>
       <c r="AE47" s="4"/>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2904,7 +2784,7 @@
       <c r="AD48" s="4"/>
       <c r="AE48" s="4"/>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -2937,7 +2817,7 @@
       <c r="AD49" s="4"/>
       <c r="AE49" s="4"/>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2970,7 +2850,7 @@
       <c r="AD50" s="4"/>
       <c r="AE50" s="4"/>
     </row>
-    <row r="51" spans="1:31">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -3015,41 +2895,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D27E9A-821C-4719-949E-ADFE999540AB}">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U2" sqref="U2"/>
+      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="17.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="30.33203125" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.5546875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5546875" style="28" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="27.44140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="17.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="30.375" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.5" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" style="28" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="29" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="11" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="6.625" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="5.88671875" style="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="40.44140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="49.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" style="50" customWidth="1"/>
-    <col min="18" max="18" width="27.88671875" style="31" customWidth="1"/>
-    <col min="19" max="19" width="14.44140625" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" customWidth="1"/>
-    <col min="21" max="21" width="92.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.875" style="31" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="40.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="49.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5" style="39" customWidth="1"/>
+    <col min="18" max="18" width="27.875" style="31" customWidth="1"/>
+    <col min="19" max="19" width="14.5" customWidth="1"/>
+    <col min="20" max="20" width="15.625" customWidth="1"/>
+    <col min="21" max="21" width="92.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="57.6">
+    <row r="1" spans="1:21" ht="66" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -3078,19 +2958,19 @@
         <v>5</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="P1" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="34" t="s">
-        <v>34</v>
+      <c r="R1" s="33" t="s">
+        <v>24</v>
       </c>
       <c r="S1" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>11</v>
@@ -3099,90 +2979,34 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="43.2">
-      <c r="N2" s="33">
+    <row r="2" spans="1:21" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="N2" s="32">
         <v>1</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="33" t="s">
-        <v>32</v>
+      <c r="P2" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="32" t="s">
+        <v>22</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="60" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="28.8">
-      <c r="N3" s="46">
-        <v>2</v>
-      </c>
-      <c r="O3" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="T3" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="U3" s="57" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="54"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="58"/>
+      <c r="U2" s="40" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="T3">
-    <cfRule type="cellIs" dxfId="7" priority="105" operator="equal">
-      <formula>"Output"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="106" operator="equal">
-      <formula>"Input"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="T2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Output"</formula>
@@ -3192,7 +3016,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T3" xr:uid="{7D10BEF8-E409-4D08-84CA-2E9809A6BA79}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2" xr:uid="{7D10BEF8-E409-4D08-84CA-2E9809A6BA79}">
       <formula1>"Input,Output"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3202,186 +3026,76 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E9F308-42F2-4EE4-88C6-567A1CEC6001}">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12CFC178-0CCF-4BE4-94A8-537385988B71}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" customWidth="1"/>
-    <col min="5" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="49.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="47"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-    </row>
-    <row r="3" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A3" s="35" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
+        <v>30</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="3" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Output"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Input"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{78AAFEAB-AB1D-41CD-BDCA-0D58E4053C98}">
-      <formula1>"Input, Output"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12CFC178-0CCF-4BE4-94A8-537385988B71}">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="20.88671875" customWidth="1"/>
-    <col min="2" max="2" width="49.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A3" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="1" priority="17" operator="equal">
-      <formula>"Output"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
-      <formula>"Input"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{0E0A1505-A44C-4F5F-925F-4A97B795C833}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{71946AF5-6E85-4ED8-B5B4-7D9D93EB04EB}">
       <formula1>"Input, Output"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3391,9 +3105,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3620,27 +3337,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96EC4C15-7EED-4784-8F5D-530E01EF32B0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFD46AAD-E98A-4FA8-BFA3-1BCF67823CB2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="dbf748f0-8f10-4d09-a75a-6f7b0ba1c21b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2ced1ded-ee5b-414b-ac47-df8c42e443d9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3665,9 +3370,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFD46AAD-E98A-4FA8-BFA3-1BCF67823CB2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96EC4C15-7EED-4784-8F5D-530E01EF32B0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="dbf748f0-8f10-4d09-a75a-6f7b0ba1c21b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2ced1ded-ee5b-414b-ac47-df8c42e443d9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>